--- a/AP Computer Original.xlsx
+++ b/AP Computer Original.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="19416" windowHeight="11016" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="19416" windowHeight="11016" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="242">
   <si>
     <t xml:space="preserve">National Data - CS A </t>
   </si>
@@ -744,6 +744,9 @@
   </si>
   <si>
     <t>% asian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***We want to have percent bar charts for 2013, showing the percentage passing of women, blacks, and hispanics by state in descending over. </t>
   </si>
 </sst>
 </file>
@@ -2686,11 +2689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54235136"/>
-        <c:axId val="54345728"/>
+        <c:axId val="101607424"/>
+        <c:axId val="76852032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54235136"/>
+        <c:axId val="101607424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,7 +2703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54345728"/>
+        <c:crossAx val="76852032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2708,7 +2711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54345728"/>
+        <c:axId val="76852032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54235136"/>
+        <c:crossAx val="101607424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3101,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23412,11 +23415,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -28307,6 +28310,11 @@
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
